--- a/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 14,95</t>
+          <t>-12,87; 17,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 8,7</t>
+          <t>-12,15; 13,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 8,58</t>
+          <t>-7,19; 10,75</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 53,58</t>
+          <t>-29,18; 62,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 30,54</t>
+          <t>-28,46; 44,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 28,54</t>
+          <t>-17,86; 36,34</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,54</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,85</t>
+          <t>-7,01; 10,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,31</t>
+          <t>-5,52; 10,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,76</t>
+          <t>-4,64; 7,32</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 11,95</t>
+          <t>-17,09; 30,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 23,41</t>
+          <t>-12,99; 29,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 12,31</t>
+          <t>-10,91; 20,57</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 6,61</t>
+          <t>-9,94; 9,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,18</t>
+          <t>-8,52; 8,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,39</t>
+          <t>-6,33; 6,36</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>0,08%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 14,03</t>
+          <t>-19,1; 22,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 15,01</t>
+          <t>-19,98; 26,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 8,1</t>
+          <t>-13,91; 16,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,22</t>
+          <t>-6,06; 7,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,64</t>
+          <t>-4,92; 5,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,28</t>
+          <t>-4,5; 3,87</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 10,4</t>
+          <t>-13,34; 17,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 13,08</t>
+          <t>-12,96; 15,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 8,43</t>
+          <t>-10,82; 10,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 4,18</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 4,58</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 10,23</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 12,95</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 8,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.501330896459958</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1187826434882022</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.042886727595477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,87; 17,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 13,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 10,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.06370935732252</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.531418845553</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.381485863410775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.77769783931836</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.03438302431164</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.43830329250977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-29,18; 62,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-28,46; 44,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 36,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.07027872956369491</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.003305151178541137</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02914913556703021</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.284482472076804</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3029687935412552</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1785185778394066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 10,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; 10,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 7,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.623159964868133</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.409575016445323</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3460273929821537</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.8162690385289606</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.451978145090294</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.659585662420193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,09; 30,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,99; 29,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 20,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.876478395671463</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.853237924942208</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.426546316461899</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.78079387579684</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.30866559293227</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.508457539542247</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 9,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 8,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 6,36</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.02125386731295252</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.06333810857915886</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.04303200060936985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1664674011454827</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1127771800293822</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1062955069188311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-19,1; 22,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,98; 26,02</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; 16,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3225888121602374</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3036427997048294</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2115351475896446</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.26999042784815</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2643056076031602</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1800014444309217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 7,24</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 5,31</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 3,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.33930763512164</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.41735159132892</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.631720571706589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.395836746387189</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.64293171468692</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.327440764282587</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-13,34; 17,61</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 15,87</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 10,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.02598587524702629</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.00712376666657716</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.004231931108913414</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2082099344368585</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2015207279512901</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1449148627708428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 4,18</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 4,58</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 3,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2201062563404688</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2647964687829694</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.159225232152388</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.5870928973635836</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.159222667578519</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.9166871634569362</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 10,23</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 12,95</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; 8,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.858486462161396</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.871398405850058</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.975468944433442</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.082060462694932</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.127542895465219</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.708193715726114</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.01414495111753035</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03077829934341508</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.02322729254327997</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1351180001377892</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.09614350349040625</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.07274164472736533</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1555504533575743</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1745109241203404</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1276004557517178</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
